--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H2">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N2">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O2">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P2">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q2">
-        <v>187.5859035238655</v>
+        <v>819.5832147080253</v>
       </c>
       <c r="R2">
-        <v>1688.27313171479</v>
+        <v>7376.248932372228</v>
       </c>
       <c r="S2">
-        <v>0.003892703360316613</v>
+        <v>0.01362382250816705</v>
       </c>
       <c r="T2">
-        <v>0.003892703360316615</v>
+        <v>0.01362382250816705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H3">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.740296</v>
       </c>
       <c r="O3">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P3">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q3">
-        <v>320.0539691180133</v>
+        <v>1284.196676140915</v>
       </c>
       <c r="R3">
-        <v>2880.48572206212</v>
+        <v>11557.77008526823</v>
       </c>
       <c r="S3">
-        <v>0.006641624651235342</v>
+        <v>0.02134703013354745</v>
       </c>
       <c r="T3">
-        <v>0.006641624651235345</v>
+        <v>0.02134703013354745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H4">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N4">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O4">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P4">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q4">
-        <v>163.1294408590399</v>
+        <v>803.0696907935006</v>
       </c>
       <c r="R4">
-        <v>1468.16496773136</v>
+        <v>7227.627217141505</v>
       </c>
       <c r="S4">
-        <v>0.00338519318706571</v>
+        <v>0.01334932040178118</v>
       </c>
       <c r="T4">
-        <v>0.003385193187065711</v>
+        <v>0.01334932040178118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H5">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N5">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O5">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P5">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q5">
-        <v>498.4566799622287</v>
+        <v>390.3185143661541</v>
       </c>
       <c r="R5">
-        <v>4486.110119660058</v>
+        <v>3512.866629295387</v>
       </c>
       <c r="S5">
-        <v>0.01034376227963404</v>
+        <v>0.006488212625572533</v>
       </c>
       <c r="T5">
-        <v>0.01034376227963404</v>
+        <v>0.006488212625572533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H6">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N6">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O6">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P6">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q6">
-        <v>554.2253671611571</v>
+        <v>2491.349553147448</v>
       </c>
       <c r="R6">
-        <v>4988.028304450415</v>
+        <v>22422.14597832703</v>
       </c>
       <c r="S6">
-        <v>0.01150105049789345</v>
+        <v>0.04141337146585387</v>
       </c>
       <c r="T6">
-        <v>0.01150105049789345</v>
+        <v>0.04141337146585387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H7">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N7">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O7">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P7">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q7">
-        <v>79.94857208003999</v>
+        <v>1843.377147872408</v>
       </c>
       <c r="R7">
-        <v>719.5371487203599</v>
+        <v>16590.39433085167</v>
       </c>
       <c r="S7">
-        <v>0.001659058966277241</v>
+        <v>0.03064221256309115</v>
       </c>
       <c r="T7">
-        <v>0.001659058966277242</v>
+        <v>0.03064221256309115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J8">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N8">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O8">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P8">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q8">
-        <v>1863.626146586396</v>
+        <v>2029.286315810374</v>
       </c>
       <c r="R8">
-        <v>16772.63531927756</v>
+        <v>18263.57684229336</v>
       </c>
       <c r="S8">
-        <v>0.0386731818698083</v>
+        <v>0.03373255587561272</v>
       </c>
       <c r="T8">
-        <v>0.03867318186980831</v>
+        <v>0.03373255587561271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J9">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>83.740296</v>
       </c>
       <c r="O9">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P9">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q9">
-        <v>3179.668269109571</v>
+        <v>3179.66826910957</v>
       </c>
       <c r="R9">
-        <v>28617.01442198614</v>
+        <v>28617.01442198613</v>
       </c>
       <c r="S9">
-        <v>0.06598313158579218</v>
+        <v>0.05285520171204569</v>
       </c>
       <c r="T9">
-        <v>0.06598313158579221</v>
+        <v>0.05285520171204568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J10">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N10">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O10">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P10">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q10">
-        <v>1620.656379567712</v>
+        <v>1988.398865330448</v>
       </c>
       <c r="R10">
-        <v>14585.90741610941</v>
+        <v>17895.58978797403</v>
       </c>
       <c r="S10">
-        <v>0.03363117599004001</v>
+        <v>0.03305288923755399</v>
       </c>
       <c r="T10">
-        <v>0.03363117599004002</v>
+        <v>0.03305288923755397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J11">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N11">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O11">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P11">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q11">
-        <v>4952.061345057696</v>
+        <v>966.4278206244667</v>
       </c>
       <c r="R11">
-        <v>44568.55210551927</v>
+        <v>8697.850385620199</v>
       </c>
       <c r="S11">
-        <v>0.102763083346226</v>
+        <v>0.01606480081443951</v>
       </c>
       <c r="T11">
-        <v>0.102763083346226</v>
+        <v>0.01606480081443951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J12">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N12">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O12">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P12">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q12">
-        <v>5506.111418503105</v>
+        <v>6168.576253606503</v>
       </c>
       <c r="R12">
-        <v>49555.00276652794</v>
+        <v>55517.18628245853</v>
       </c>
       <c r="S12">
-        <v>0.1142604962230428</v>
+        <v>0.1025394206458559</v>
       </c>
       <c r="T12">
-        <v>0.1142604962230429</v>
+        <v>0.1025394206458559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J13">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N13">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O13">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P13">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q13">
-        <v>794.2720988715121</v>
+        <v>4564.197941007934</v>
       </c>
       <c r="R13">
-        <v>7148.448889843608</v>
+        <v>41077.7814690714</v>
       </c>
       <c r="S13">
-        <v>0.01648239878477597</v>
+        <v>0.07587005385729591</v>
       </c>
       <c r="T13">
-        <v>0.01648239878477598</v>
+        <v>0.07587005385729589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H14">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N14">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O14">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P14">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q14">
-        <v>1010.242202424628</v>
+        <v>1100.945495767351</v>
       </c>
       <c r="R14">
-        <v>9092.179821821652</v>
+        <v>9908.509461906158</v>
       </c>
       <c r="S14">
-        <v>0.02096411906351847</v>
+        <v>0.01830087019393602</v>
       </c>
       <c r="T14">
-        <v>0.02096411906351848</v>
+        <v>0.01830087019393602</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H15">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.740296</v>
       </c>
       <c r="O15">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P15">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q15">
-        <v>1723.647782603184</v>
+        <v>1725.060397656408</v>
       </c>
       <c r="R15">
-        <v>15512.83004342865</v>
+        <v>15525.54357890767</v>
       </c>
       <c r="S15">
-        <v>0.03576841004200543</v>
+        <v>0.02867544899868585</v>
       </c>
       <c r="T15">
-        <v>0.03576841004200544</v>
+        <v>0.02867544899868585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H16">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N16">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O16">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P16">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q16">
-        <v>878.5321419035517</v>
+        <v>1078.762891918614</v>
       </c>
       <c r="R16">
-        <v>7906.789277131966</v>
+        <v>9708.866027267524</v>
       </c>
       <c r="S16">
-        <v>0.01823092757339849</v>
+        <v>0.01793213172762685</v>
       </c>
       <c r="T16">
-        <v>0.01823092757339849</v>
+        <v>0.01793213172762685</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H17">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N17">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O17">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P17">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q17">
-        <v>2684.433983144391</v>
+        <v>524.314557197353</v>
       </c>
       <c r="R17">
-        <v>24159.90584829952</v>
+        <v>4718.831014776177</v>
       </c>
       <c r="S17">
-        <v>0.05570623906398609</v>
+        <v>0.008715610980697884</v>
       </c>
       <c r="T17">
-        <v>0.05570623906398611</v>
+        <v>0.008715610980697884</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H18">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N18">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O18">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P18">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q18">
-        <v>2984.775748297378</v>
+        <v>3346.627919773608</v>
       </c>
       <c r="R18">
-        <v>26862.9817346764</v>
+        <v>30119.65127796247</v>
       </c>
       <c r="S18">
-        <v>0.06193880439267942</v>
+        <v>0.05563054972534383</v>
       </c>
       <c r="T18">
-        <v>0.06193880439267942</v>
+        <v>0.05563054972534383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H19">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N19">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O19">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P19">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q19">
-        <v>430.562318498352</v>
+        <v>2476.20709103173</v>
       </c>
       <c r="R19">
-        <v>3875.060866485168</v>
+        <v>22285.86381928557</v>
       </c>
       <c r="S19">
-        <v>0.008934847195653014</v>
+        <v>0.04116166033695443</v>
       </c>
       <c r="T19">
-        <v>0.008934847195653017</v>
+        <v>0.04116166033695443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H20">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N20">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O20">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P20">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q20">
-        <v>257.032766921606</v>
+        <v>192.4048662800926</v>
       </c>
       <c r="R20">
-        <v>2313.294902294454</v>
+        <v>1731.643796520833</v>
       </c>
       <c r="S20">
-        <v>0.00533383530804551</v>
+        <v>0.003198320440031736</v>
       </c>
       <c r="T20">
-        <v>0.00533383530804551</v>
+        <v>0.003198320440031736</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H21">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>83.740296</v>
       </c>
       <c r="O21">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P21">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q21">
-        <v>438.542319552168</v>
+        <v>301.4772451608294</v>
       </c>
       <c r="R21">
-        <v>3946.880875969512</v>
+        <v>2713.295206447464</v>
       </c>
       <c r="S21">
-        <v>0.009100444803650075</v>
+        <v>0.00501141605222541</v>
       </c>
       <c r="T21">
-        <v>0.009100444803650078</v>
+        <v>0.00501141605222541</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H22">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N22">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O22">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P22">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q22">
-        <v>223.5221877695039</v>
+        <v>188.5281612627514</v>
       </c>
       <c r="R22">
-        <v>2011.699689925535</v>
+        <v>1696.753451364762</v>
       </c>
       <c r="S22">
-        <v>0.004638437937448591</v>
+        <v>0.003133878489385403</v>
       </c>
       <c r="T22">
-        <v>0.004638437937448591</v>
+        <v>0.003133878489385403</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H23">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N23">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O23">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P23">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q23">
-        <v>682.9921504466839</v>
+        <v>91.6309414535999</v>
       </c>
       <c r="R23">
-        <v>6146.929354020155</v>
+        <v>824.6784730823991</v>
       </c>
       <c r="S23">
-        <v>0.0141731643432121</v>
+        <v>0.001523168923200579</v>
       </c>
       <c r="T23">
-        <v>0.0141731643432121</v>
+        <v>0.001523168923200578</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H24">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N24">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O24">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P24">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q24">
-        <v>759.407167295231</v>
+        <v>584.8677340238961</v>
       </c>
       <c r="R24">
-        <v>6834.664505657079</v>
+        <v>5263.809606215064</v>
       </c>
       <c r="S24">
-        <v>0.01575889646528036</v>
+        <v>0.009722178365907658</v>
       </c>
       <c r="T24">
-        <v>0.01575889646528036</v>
+        <v>0.009722178365907658</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H25">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N25">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O25">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P25">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q25">
-        <v>109.546625344104</v>
+        <v>432.7501189327323</v>
       </c>
       <c r="R25">
-        <v>985.919628096936</v>
+        <v>3894.75107039459</v>
       </c>
       <c r="S25">
-        <v>0.002273265253825888</v>
+        <v>0.007193547531141251</v>
       </c>
       <c r="T25">
-        <v>0.002273265253825889</v>
+        <v>0.007193547531141251</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H26">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N26">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O26">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P26">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q26">
-        <v>657.4358533238701</v>
+        <v>678.6024869638862</v>
       </c>
       <c r="R26">
-        <v>5916.922679914832</v>
+        <v>6107.422382674977</v>
       </c>
       <c r="S26">
-        <v>0.01364283087028902</v>
+        <v>0.01128031866695842</v>
       </c>
       <c r="T26">
-        <v>0.01364283087028902</v>
+        <v>0.01128031866695842</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H27">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>83.740296</v>
       </c>
       <c r="O27">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P27">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q27">
-        <v>1121.699180717077</v>
+        <v>1063.295395197224</v>
       </c>
       <c r="R27">
-        <v>10095.2926264537</v>
+        <v>9569.658556775017</v>
       </c>
       <c r="S27">
-        <v>0.0232770271540486</v>
+        <v>0.01767501759181217</v>
       </c>
       <c r="T27">
-        <v>0.02327702715404861</v>
+        <v>0.01767501759181217</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H28">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N28">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O28">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P28">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q28">
-        <v>571.7228274552318</v>
+        <v>664.929539304842</v>
       </c>
       <c r="R28">
-        <v>5145.505447097087</v>
+        <v>5984.365853743578</v>
       </c>
       <c r="S28">
-        <v>0.01186415039614932</v>
+        <v>0.01105303508095107</v>
       </c>
       <c r="T28">
-        <v>0.01186415039614932</v>
+        <v>0.01105303508095106</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H29">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N29">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O29">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P29">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q29">
-        <v>1746.950525492227</v>
+        <v>323.1778174608923</v>
       </c>
       <c r="R29">
-        <v>15722.55472943005</v>
+        <v>2908.600357148031</v>
       </c>
       <c r="S29">
-        <v>0.03625197871025151</v>
+        <v>0.005372141772367235</v>
       </c>
       <c r="T29">
-        <v>0.03625197871025152</v>
+        <v>0.005372141772367234</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H30">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N30">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O30">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P30">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q30">
-        <v>1942.404095129537</v>
+        <v>2062.799691748824</v>
       </c>
       <c r="R30">
-        <v>17481.63685616583</v>
+        <v>18565.19722573942</v>
       </c>
       <c r="S30">
-        <v>0.04030794855137678</v>
+        <v>0.03428964425570794</v>
       </c>
       <c r="T30">
-        <v>0.04030794855137679</v>
+        <v>0.03428964425570793</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H31">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N31">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O31">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P31">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q31">
-        <v>280.197268132032</v>
+        <v>1526.288355483523</v>
       </c>
       <c r="R31">
-        <v>2521.775413188288</v>
+        <v>13736.59519935171</v>
       </c>
       <c r="S31">
-        <v>0.005814535243424243</v>
+        <v>0.02537128784268413</v>
       </c>
       <c r="T31">
-        <v>0.005814535243424246</v>
+        <v>0.02537128784268412</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H32">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N32">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O32">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P32">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q32">
-        <v>1036.607760464862</v>
+        <v>1639.508450878305</v>
       </c>
       <c r="R32">
-        <v>9329.469844183757</v>
+        <v>14755.57605790475</v>
       </c>
       <c r="S32">
-        <v>0.02151124597685172</v>
+        <v>0.02725333039350156</v>
       </c>
       <c r="T32">
-        <v>0.02151124597685173</v>
+        <v>0.02725333039350156</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H33">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>83.740296</v>
       </c>
       <c r="O33">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P33">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q33">
-        <v>1768.631980990536</v>
+        <v>2568.929262262797</v>
       </c>
       <c r="R33">
-        <v>15917.68782891482</v>
+        <v>23120.36336036518</v>
       </c>
       <c r="S33">
-        <v>0.0367019031080306</v>
+        <v>0.04270296862725899</v>
       </c>
       <c r="T33">
-        <v>0.03670190310803061</v>
+        <v>0.04270296862725898</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H34">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N34">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O34">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P34">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q34">
-        <v>901.4602972726078</v>
+        <v>1606.474511766595</v>
       </c>
       <c r="R34">
-        <v>8113.14267545347</v>
+        <v>14458.27060589936</v>
       </c>
       <c r="S34">
-        <v>0.01870672295980198</v>
+        <v>0.02670421162785693</v>
       </c>
       <c r="T34">
-        <v>0.01870672295980198</v>
+        <v>0.02670421162785692</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H35">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N35">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O35">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P35">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q35">
-        <v>2754.493024251467</v>
+        <v>780.7999131187045</v>
       </c>
       <c r="R35">
-        <v>24790.43721826321</v>
+        <v>7027.19921806834</v>
       </c>
       <c r="S35">
-        <v>0.05716007466471596</v>
+        <v>0.01297913285658377</v>
       </c>
       <c r="T35">
-        <v>0.05716007466471597</v>
+        <v>0.01297913285658377</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H36">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N36">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O36">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P36">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q36">
-        <v>3062.673185208987</v>
+        <v>4983.738774997064</v>
       </c>
       <c r="R36">
-        <v>27564.05866688088</v>
+        <v>44853.64897497357</v>
       </c>
       <c r="S36">
-        <v>0.06355529906914263</v>
+        <v>0.08284402520593133</v>
       </c>
       <c r="T36">
-        <v>0.06355529906914265</v>
+        <v>0.08284402520593132</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H37">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N37">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O37">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P37">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q37">
-        <v>441.799243436808</v>
+        <v>3687.523558140979</v>
       </c>
       <c r="R37">
-        <v>3976.193190931272</v>
+        <v>33187.7120232688</v>
       </c>
       <c r="S37">
-        <v>0.009168031111106385</v>
+        <v>0.06129721247243276</v>
       </c>
       <c r="T37">
-        <v>0.009168031111106388</v>
+        <v>0.06129721247243276</v>
       </c>
     </row>
   </sheetData>
